--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85be444a571b20d4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEC8C9E-182E-45C0-955E-75A0F9848766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454D801-5E64-4AB3-A592-D7ECFCD7A219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>conduction.nl</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>The staging environment</t>
+  </si>
+  <si>
+    <t>conduction</t>
+  </si>
+  <si>
+    <t>zaakonline</t>
   </si>
 </sst>
 </file>
@@ -525,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -552,7 +558,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -721,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E6857-E780-4091-B7AF-DC1A6A799A18}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454D801-5E64-4AB3-A592-D7ECFCD7A219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E08AEF-8171-45EF-B5D5-515CB70ACBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E08AEF-8171-45EF-B5D5-515CB70ACBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E127538D-514E-4501-866A-793F494DF055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
+    <workbookView xWindow="2730" yWindow="765" windowWidth="21600" windowHeight="15435" activeTab="1" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>This common ground component describes common ground components</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/environment-component/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/environment-component/api/helm</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>User Component</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/user-component/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/user-component/api/helm/</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>cgrc</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/Commongroundregistratiecomponent/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/Commongroundregistratiecomponent/api/helm</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>Procesregsitatie Component</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/procesregistratiecomponent/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/procesregistratiecomponent/api/helm</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>Medewerkercomponent</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/medewerkercatalogus/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/medewerkercatalogus/api/helm</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>Webresource Catalogus</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/webresourcecatalogus/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/webresourcecatalogus/api/helm</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>Digispoof UI</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/digispoof-interface/</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/digispoof-interface/api/helm</t>
   </si>
   <si>
@@ -167,6 +146,27 @@
   </si>
   <si>
     <t>zaakonline</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/environment-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/user-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/Commongroundregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/procesregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/medewerkercatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/webresourcecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/digispoof-interface</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -544,13 +544,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B350-72AF-4D84-A15D-5E384E813B54}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,11 +601,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -613,16 +613,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -630,16 +630,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -647,16 +647,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,16 +664,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -681,16 +681,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -698,16 +698,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -717,9 +717,15 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{CC6D62E1-C4E8-402A-9434-4950A9DB4C39}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{19D77A23-42EE-4254-8245-A81D77BFF7C7}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{6DB4D0C8-8136-4767-8BB6-9EAFDDDC6960}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{C40D44EA-D742-448C-9AEC-1F4732849AC9}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{50FAC292-CEC4-461E-A9FB-A86D4B7620D5}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{A3D471E1-FC1E-4236-92DC-AC8563A09C8D}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{3FD9B41C-CA07-4E4B-ADC0-B0179A8307EE}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{F7E95135-2938-42E0-8AF7-CA6E5A4EFEF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -740,44 +746,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E127538D-514E-4501-866A-793F494DF055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E675474-41EA-4623-9241-9A19E15DA206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="765" windowWidth="21600" windowHeight="15435" activeTab="1" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
-  <si>
-    <t>conduction.nl</t>
-  </si>
-  <si>
-    <t>The core conduction cluster</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>evc</t>
   </si>
@@ -109,18 +103,6 @@
     <t>https://github.com/ConductionNL/digispoof-interface/api/helm</t>
   </si>
   <si>
-    <t>zaakonline.nl</t>
-  </si>
-  <si>
-    <t>Het zaakonline cluster</t>
-  </si>
-  <si>
-    <t>The core conduction domain</t>
-  </si>
-  <si>
-    <t>Het zaakonline domain</t>
-  </si>
-  <si>
     <t>dev</t>
   </si>
   <si>
@@ -142,12 +124,6 @@
     <t>The staging environment</t>
   </si>
   <si>
-    <t>conduction</t>
-  </si>
-  <si>
-    <t>zaakonline</t>
-  </si>
-  <si>
     <t>https://github.com/ConductionNL/environment-component</t>
   </si>
   <si>
@@ -167,6 +143,18 @@
   </si>
   <si>
     <t>https://github.com/ConductionNL/digispoof-interface</t>
+  </si>
+  <si>
+    <t>testcluster</t>
+  </si>
+  <si>
+    <t>Een testcluster</t>
+  </si>
+  <si>
+    <t>Een domein voor het testcluster</t>
+  </si>
+  <si>
+    <t>a.conduction.nl</t>
   </si>
 </sst>
 </file>
@@ -529,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,30 +532,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B350-72AF-4D84-A15D-5E384E813B54}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,19 +567,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -613,16 +587,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -630,16 +604,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -647,16 +621,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,16 +638,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -681,16 +655,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -698,16 +672,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -746,44 +720,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E675474-41EA-4623-9241-9A19E15DA206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22FBC3-AC9B-4DC1-A3F9-E095D00BE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
+    <workbookView xWindow="3510" yWindow="765" windowWidth="21600" windowHeight="15435" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>evc</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>a.conduction.nl</t>
+  </si>
+  <si>
+    <t>conduction</t>
+  </si>
+  <si>
+    <t>the main conduction cluster</t>
+  </si>
+  <si>
+    <t>the main conduction domain</t>
+  </si>
+  <si>
+    <t>conduction.nl</t>
+  </si>
+  <si>
+    <t>zaakonline</t>
+  </si>
+  <si>
+    <t>the main zaakonline cluster</t>
+  </si>
+  <si>
+    <t>the main zaakonline domain</t>
+  </si>
+  <si>
+    <t>zaakonline.nl</t>
   </si>
 </sst>
 </file>
@@ -517,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,15 +556,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\DataFixtures\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\Service\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22FBC3-AC9B-4DC1-A3F9-E095D00BE2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{453A2257-740E-4BFB-B941-CED8A88F8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="765" windowWidth="21600" windowHeight="15435" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
   <sheets>
-    <sheet name="clusters" sheetId="1" r:id="rId1"/>
-    <sheet name="components" sheetId="2" r:id="rId2"/>
+    <sheet name="information" sheetId="4" r:id="rId1"/>
+    <sheet name="clusters" sheetId="1" r:id="rId2"/>
     <sheet name="environments" sheetId="3" r:id="rId3"/>
+    <sheet name="components" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
+  <si>
+    <t>The environment excel file</t>
+  </si>
+  <si>
+    <t>Welcome to the environment excel file for the conduction evc (environment component). This file can be used to load components, clusters and environments in bulk into the EVC component. This sheet describes the content of the other sheets of this file</t>
+  </si>
+  <si>
+    <t>This file consists of four worksheets. The first one, the one you are reading now, is meant to give some introduction to this file. The other three can be used to define resources in the evc. To define clusters there is the sheet 'clusters', the sheet 'environments' describes the environments that should be present per cluster, and finaly, the 'components' describes that should be installed for those environments</t>
+  </si>
+  <si>
+    <t>The 'Clusters' worksheet</t>
+  </si>
+  <si>
+    <t>The contents of this worksheet:</t>
+  </si>
+  <si>
+    <t>Column A</t>
+  </si>
+  <si>
+    <t>Column B</t>
+  </si>
+  <si>
+    <t>Column C</t>
+  </si>
+  <si>
+    <t>Column D</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>The name of a cluster</t>
+  </si>
+  <si>
+    <t>The description of the cluster</t>
+  </si>
+  <si>
+    <t>The description of a domain</t>
+  </si>
+  <si>
+    <t>The location of a domain</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>The 'Environments' worksheet</t>
+  </si>
+  <si>
+    <t>The name of a environment</t>
+  </si>
+  <si>
+    <t>The description of the environment</t>
+  </si>
+  <si>
+    <t>If components on a environment should implement debugging</t>
+  </si>
+  <si>
+    <t>The authorization key that the components on the environment should use</t>
+  </si>
+  <si>
+    <t>no (defaults to 0)</t>
+  </si>
+  <si>
+    <t>The 'Components' worksheet</t>
+  </si>
+  <si>
+    <t>Column E</t>
+  </si>
+  <si>
+    <t>Column F</t>
+  </si>
+  <si>
+    <t>Column G</t>
+  </si>
+  <si>
+    <t>A component's shortcode</t>
+  </si>
+  <si>
+    <t>The component's name</t>
+  </si>
+  <si>
+    <t>The component's description</t>
+  </si>
+  <si>
+    <t>The github repository of the component</t>
+  </si>
+  <si>
+    <t>The helm repository of the component</t>
+  </si>
+  <si>
+    <t>If the component is a core component</t>
+  </si>
+  <si>
+    <t>The date the component was installed before.</t>
+  </si>
+  <si>
+    <t>no (defaults to FALSE)</t>
+  </si>
+  <si>
+    <t>huwelijksplanner</t>
+  </si>
+  <si>
+    <t>Het huwelijksplanner cluster</t>
+  </si>
+  <si>
+    <t>het huwelijksplanner domein</t>
+  </si>
+  <si>
+    <t>https://huwelijksplanner.online</t>
+  </si>
+  <si>
+    <t>processen</t>
+  </si>
+  <si>
+    <t>het processen cluster</t>
+  </si>
+  <si>
+    <t>het processen domein</t>
+  </si>
+  <si>
+    <t>https://processen.zaakonline.nl</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>The production environment</t>
+  </si>
+  <si>
+    <t>45c1a4b6-59d3-4a6e-86bf-88a872f35845</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>The development environment</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Adresservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/adresservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/adresservice/api/helm</t>
+  </si>
+  <si>
+    <t>brp</t>
+  </si>
+  <si>
+    <t>brp-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/brpservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/brpservice/api/helm</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Contactcatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/contactcatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/contactcatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>ds-ui</t>
+  </si>
+  <si>
+    <t>Digispoof UI</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/digispoof-interface</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/digispoof-interface/api/helm</t>
+  </si>
   <si>
     <t>evc</t>
   </si>
@@ -46,146 +239,293 @@
     <t>This common ground component describes common ground components</t>
   </si>
   <si>
+    <t>https://github.com/ConductionNL/environment-component</t>
+  </si>
+  <si>
     <t>https://github.com/ConductionNL/environment-component/api/helm</t>
   </si>
   <si>
+    <t>irc</t>
+  </si>
+  <si>
+    <t>Instemmingregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/instemmingservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/instemmingservice/api/helm</t>
+  </si>
+  <si>
+    <t>ltc</t>
+  </si>
+  <si>
+    <t>Landelijketabellencatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/landelijketabellencatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/landelijketabellencatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>prc</t>
+  </si>
+  <si>
+    <t>procesregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/procesregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/procesregistratiecomponent/api/helm</t>
+  </si>
+  <si>
+    <t>ptc</t>
+  </si>
+  <si>
+    <t>procestypecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/procestypecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/procestypecatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>vrc</t>
+  </si>
+  <si>
+    <t>verzoekregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/verzoekregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/verzoekregistratiecomponent/api/helm</t>
+  </si>
+  <si>
+    <t>vtc</t>
+  </si>
+  <si>
+    <t>verzoektypecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/verzoektypecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/verzoektypecatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>wrc</t>
+  </si>
+  <si>
+    <t>Webresource Catalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/webresourcecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/webresourcecatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
+    <t>OrderRegistratieComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/orderregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/orderregistratiecomponent/api/helm</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>BetaalService</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/betaalservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/betaalservice/api/helm</t>
+  </si>
+  <si>
+    <t>pdc</t>
+  </si>
+  <si>
+    <t>ProductenDienstenCatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/productenendienstencatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/productenendienstencatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>LocatieCatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/locatiecatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/locatiecatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>mrc</t>
+  </si>
+  <si>
+    <t>MedewerkerCatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/medewerkercatalogus</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/medewerkercatalogus/api/helm</t>
+  </si>
+  <si>
+    <t>pfc</t>
+  </si>
+  <si>
+    <t>PortfolioComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/portfolio-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/portfolio-component/api/helm</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>TakenComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/taken-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/taken-component/api/helm</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>MemoComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/memo-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/memo-component/api/helm</t>
+  </si>
+  <si>
+    <t>stuf</t>
+  </si>
+  <si>
+    <t>StufService</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/stufservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/stufservice/api/helm</t>
+  </si>
+  <si>
     <t>uc</t>
   </si>
   <si>
-    <t>User Component</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/user-component/api/helm/</t>
-  </si>
-  <si>
-    <t>Comonground Registratiecomponent</t>
-  </si>
-  <si>
-    <t>cgrc</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/Commongroundregistratiecomponent/api/helm</t>
-  </si>
-  <si>
-    <t>prc</t>
-  </si>
-  <si>
-    <t>Procesregsitatie Component</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/procesregistratiecomponent/api/helm</t>
-  </si>
-  <si>
-    <t>mrc</t>
-  </si>
-  <si>
-    <t>Medewerkercomponent</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/medewerkercatalogus/api/helm</t>
-  </si>
-  <si>
-    <t>wrc</t>
-  </si>
-  <si>
-    <t>Webresource Catalogus</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/webresourcecatalogus/api/helm</t>
-  </si>
-  <si>
-    <t>ds-ui</t>
-  </si>
-  <si>
-    <t>Digispoof UI</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/digispoof-interface/api/helm</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>The production environment</t>
-  </si>
-  <si>
-    <t>45c1a4b6-59d3-4a6e-86bf-88a872f35845</t>
-  </si>
-  <si>
-    <t>stag</t>
-  </si>
-  <si>
-    <t>The development environment</t>
-  </si>
-  <si>
-    <t>The staging environment</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/environment-component</t>
+    <t>UserComponent</t>
   </si>
   <si>
     <t>https://github.com/ConductionNL/user-component</t>
   </si>
   <si>
-    <t>https://github.com/ConductionNL/Commongroundregistratiecomponent</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/procesregistratiecomponent</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/medewerkercatalogus</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/webresourcecatalogus</t>
-  </si>
-  <si>
-    <t>https://github.com/ConductionNL/digispoof-interface</t>
-  </si>
-  <si>
-    <t>testcluster</t>
-  </si>
-  <si>
-    <t>Een testcluster</t>
-  </si>
-  <si>
-    <t>Een domein voor het testcluster</t>
-  </si>
-  <si>
-    <t>a.conduction.nl</t>
-  </si>
-  <si>
-    <t>conduction</t>
-  </si>
-  <si>
-    <t>the main conduction cluster</t>
-  </si>
-  <si>
-    <t>the main conduction domain</t>
-  </si>
-  <si>
-    <t>conduction.nl</t>
-  </si>
-  <si>
-    <t>zaakonline</t>
-  </si>
-  <si>
-    <t>the main zaakonline cluster</t>
-  </si>
-  <si>
-    <t>the main zaakonline domain</t>
-  </si>
-  <si>
-    <t>zaakonline.nl</t>
+    <t>https://github.com/ConductionNL/user-component/api/helm</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>AgendaService</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/agendaservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/agendaservice/api/helm</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>BerichtService</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/berichtservice</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/berichtservice/api/helm</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>ReviewComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/review-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/review-component/api/helm</t>
+  </si>
+  <si>
+    <t>chrc</t>
+  </si>
+  <si>
+    <t>ChallengeComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/Challenge-component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/Challenge-component/api/helm</t>
+  </si>
+  <si>
+    <t>crc</t>
+  </si>
+  <si>
+    <t>ContactRegistratieComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/contactregistratiecomponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/contactregistratiecomponent/api/helm</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>DocParser</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/docparser</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/docparser/api/helm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +541,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,17 +580,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -245,7 +644,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,279 +939,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7B41E3-1047-4248-BFCF-7575ADE0745E}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="47.25" customHeight="1" thickTop="1">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B350-72AF-4D84-A15D-5E384E813B54}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D686253-1BB3-4847-8D4A-74F469441A53}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{CC6D62E1-C4E8-402A-9434-4950A9DB4C39}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{19D77A23-42EE-4254-8245-A81D77BFF7C7}"/>
-    <hyperlink ref="D1" r:id="rId3" xr:uid="{6DB4D0C8-8136-4767-8BB6-9EAFDDDC6960}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{C40D44EA-D742-448C-9AEC-1F4732849AC9}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{50FAC292-CEC4-461E-A9FB-A86D4B7620D5}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{A3D471E1-FC1E-4236-92DC-AC8563A09C8D}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{3FD9B41C-CA07-4E4B-ADC0-B0179A8307EE}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{F7E95135-2938-42E0-8AF7-CA6E5A4EFEF3}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{237A0970-0A96-4FCB-B918-C04A244A79F5}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C3E36D05-41DF-4034-BE99-7576B7E24291}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E6857-E780-4091-B7AF-DC1A6A799A18}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B350-72AF-4D84-A15D-5E384E813B54}">
+  <dimension ref="A1:XFD28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7 16384:16384">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7 16384:16384">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7 16384:16384">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7 16384:16384">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7 16384:16384">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7 16384:16384">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7 16384:16384">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7 16384:16384">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="XFD24" s="1"/>
+    </row>
+    <row r="25" spans="1:7 16384:16384">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7 16384:16384">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7 16384:16384">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7 16384:16384">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F27">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{19D77A23-42EE-4254-8245-A81D77BFF7C7}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{B2C0F910-C780-487C-8626-37471E064F3C}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{F6B800C5-0340-4308-BF0D-EEE018D29771}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{19999326-0F9D-47EC-8344-5D251838B379}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{99226445-1AF8-421E-BE28-28BCEA591327}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{7AAD05D6-0D94-46F6-A622-9ADE928F6D82}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{BE91BA4C-1FBD-4F66-B42D-1AB0CB92D216}"/>
+    <hyperlink ref="E1" r:id="rId8" xr:uid="{3A2E2778-4B07-40A7-84C1-331EBA3BFF80}"/>
+    <hyperlink ref="D1" r:id="rId9" xr:uid="{1B46049E-7FDB-4FF6-9A43-9D39D8123B23}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{7F2186DB-5F0A-478D-8ABA-18A632F4AFA9}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{36AA91A0-C9BC-4B14-A2ED-34EDE64D808F}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{8DCB265B-8E3C-4980-ABC7-8A6393434105}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{7EFE02F7-EA53-438F-8D7B-1EE7A8F2ACCF}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{B7C41ED0-0748-466D-A777-87C0221011B3}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{CDE1DE1F-C04F-4955-8CA7-40DDCE2A7869}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{7CED1F56-7CEE-4740-AE25-A1F5ACD1F0BA}"/>
+    <hyperlink ref="D6" r:id="rId17" xr:uid="{41FE42E3-3745-4DB9-BAF7-CCAA19F6AE02}"/>
+    <hyperlink ref="E3" r:id="rId18" xr:uid="{2834821C-30B7-4BAB-A1CF-5FA292E134C3}"/>
+    <hyperlink ref="D3" r:id="rId19" xr:uid="{8D635CA0-58C6-4BAC-ADD8-803599AD66DE}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{F7E95135-2938-42E0-8AF7-CA6E5A4EFEF3}"/>
+    <hyperlink ref="D5" r:id="rId21" xr:uid="{6DB4D0C8-8136-4767-8BB6-9EAFDDDC6960}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{E231E91B-49B7-4F15-8E1F-99339359DCFF}"/>
+    <hyperlink ref="E13" r:id="rId23" xr:uid="{FAB054B7-5E3C-45D0-9338-300726E496CF}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{23422CDB-17A1-4EBB-B654-68514F9A7F85}"/>
+    <hyperlink ref="E14" r:id="rId25" xr:uid="{FEF94E82-9A0F-4EFC-887E-348CC69379E7}"/>
+    <hyperlink ref="D15" r:id="rId26" xr:uid="{74E06146-0F20-4B0D-B452-F5F2B9092EDF}"/>
+    <hyperlink ref="E15" r:id="rId27" xr:uid="{DA35D237-B0AD-45A6-8001-044945989E49}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{FEAF0106-7456-4B2E-9FAF-1CB2C02DC831}"/>
+    <hyperlink ref="E16" r:id="rId29" xr:uid="{69A2A297-BB7B-48B1-BAF9-2556F27F1C55}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{8F0E35BD-2902-47E8-9921-007800EA6FC7}"/>
+    <hyperlink ref="E17" r:id="rId31" xr:uid="{509F315A-5D2A-414E-8B1C-52E84DF19AE6}"/>
+    <hyperlink ref="D18" r:id="rId32" xr:uid="{15F9C4FE-2284-46ED-9911-23C545B91918}"/>
+    <hyperlink ref="E18" r:id="rId33" xr:uid="{6F985CEE-6EE8-40E5-9A22-94DC6BCF5869}"/>
+    <hyperlink ref="D19" r:id="rId34" xr:uid="{F7C6D34E-7C2A-4FAB-9AE6-B65ED75FAEF1}"/>
+    <hyperlink ref="E19" r:id="rId35" xr:uid="{878FFB10-EF0D-49C0-BAE1-D1C6AFF8BED4}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{52065078-BAB7-415D-9EF3-930D7DBDB2C2}"/>
+    <hyperlink ref="E20" r:id="rId37" xr:uid="{6B49624A-7D08-40AC-95C6-D2616904D291}"/>
+    <hyperlink ref="D21" r:id="rId38" xr:uid="{F8F9A400-E953-4719-BD6B-52432B44E879}"/>
+    <hyperlink ref="E21" r:id="rId39" xr:uid="{E9317707-1A45-460B-B553-04D81BEF260D}"/>
+    <hyperlink ref="D22" r:id="rId40" xr:uid="{88462AA0-CCFE-4F97-AA68-998CE7B28216}"/>
+    <hyperlink ref="E22" r:id="rId41" xr:uid="{59FE2CBE-4515-4292-BFFD-2096A5ED2837}"/>
+    <hyperlink ref="D23" r:id="rId42" xr:uid="{FC316816-19AC-4C96-9A49-82C9AB080A9F}"/>
+    <hyperlink ref="E23" r:id="rId43" xr:uid="{7C67CA42-8921-4A69-8893-0BDC4102F3BE}"/>
+    <hyperlink ref="D24" r:id="rId44" xr:uid="{161B0D9F-7FB0-4D83-AA2D-E5A2FF2F9C13}"/>
+    <hyperlink ref="E24" r:id="rId45" xr:uid="{681900A4-0F86-46E2-ABEE-ABC83E94BD58}"/>
+    <hyperlink ref="D25" r:id="rId46" xr:uid="{BCCC0B08-8B27-4E53-82F7-4DF87ACE4F12}"/>
+    <hyperlink ref="E25" r:id="rId47" xr:uid="{8813E95E-428F-4905-930B-F9E52893184C}"/>
+    <hyperlink ref="D26" r:id="rId48" xr:uid="{0B89D1D0-8B95-4D36-9667-592BFEAC0030}"/>
+    <hyperlink ref="E26" r:id="rId49" xr:uid="{183A7844-8223-4387-A214-470CEA90FE7A}"/>
+    <hyperlink ref="D27" r:id="rId50" xr:uid="{D7E86BEA-B009-40AD-B46D-A9C79198FF1D}"/>
+    <hyperlink ref="E27" r:id="rId51" xr:uid="{58C9101D-1169-4B29-A720-1C0468798C61}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{EDB2932F-EB16-4707-9BB1-6D000FDA27A9}"/>
+    <hyperlink ref="E28" r:id="rId53" xr:uid="{7FA01D52-0946-4135-9E98-95D310018431}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+</worksheet>
 </file>
--- a/api/src/DataFixtures/resources/components.xlsx
+++ b/api/src/DataFixtures/resources/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjzon\Documents\Conduction\environment-component\api\src\Service\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{453A2257-740E-4BFB-B941-CED8A88F8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBF7603-5DF2-4BDF-BB34-9BB3E7D46B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{3860586B-830A-4C68-9AFB-0DF1C2B95B99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="165">
   <si>
     <t>The environment excel file</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t>https://github.com/ConductionNL/docparser/api/helm</t>
+  </si>
+  <si>
+    <t>cmc</t>
+  </si>
+  <si>
+    <t>ContactMomentComponent</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/ContactMoment-Component</t>
+  </si>
+  <si>
+    <t>https://github.com/ConductionNL/ContactMoment-Component/api/helm</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233B350-72AF-4D84-A15D-5E384E813B54}">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1584,6 +1596,9 @@
       <c r="E14" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1598,6 +1613,9 @@
       <c r="E15" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1613,6 +1631,9 @@
       <c r="E16" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7 16384:16384">
@@ -1628,6 +1649,9 @@
       <c r="E17" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7 16384:16384">
@@ -1643,6 +1667,9 @@
       <c r="E18" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7 16384:16384">
@@ -1658,6 +1685,9 @@
       <c r="E19" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7 16384:16384">
@@ -1673,6 +1703,9 @@
       <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7 16384:16384">
@@ -1688,6 +1721,9 @@
       <c r="E21" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7 16384:16384">
@@ -1703,6 +1739,9 @@
       <c r="E22" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7 16384:16384">
@@ -1718,6 +1757,9 @@
       <c r="E23" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7 16384:16384">
@@ -1733,6 +1775,9 @@
       <c r="E24" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
       <c r="XFD24" s="1"/>
     </row>
     <row r="25" spans="1:7 16384:16384">
@@ -1748,6 +1793,9 @@
       <c r="E25" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7 16384:16384">
       <c r="A26" t="s">
@@ -1762,6 +1810,9 @@
       <c r="E26" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7 16384:16384">
       <c r="A27" t="s">
@@ -1776,6 +1827,9 @@
       <c r="E27" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7 16384:16384">
       <c r="A28" t="s">
@@ -1789,6 +1843,26 @@
       </c>
       <c r="E28" s="1" t="s">
         <v>160</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7 16384:16384">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1850,8 +1924,10 @@
     <hyperlink ref="E27" r:id="rId51" xr:uid="{58C9101D-1169-4B29-A720-1C0468798C61}"/>
     <hyperlink ref="D28" r:id="rId52" xr:uid="{EDB2932F-EB16-4707-9BB1-6D000FDA27A9}"/>
     <hyperlink ref="E28" r:id="rId53" xr:uid="{7FA01D52-0946-4135-9E98-95D310018431}"/>
+    <hyperlink ref="D29" r:id="rId54" xr:uid="{6BCDDA14-3ED5-45F5-8485-23EFE03370DF}"/>
+    <hyperlink ref="E29" r:id="rId55" xr:uid="{9C26098B-D731-4375-94D9-93D13FA65F6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>